--- a/Sizing_Method/Mission.xlsx
+++ b/Sizing_Method/Mission.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bli408_gatech_edu/Documents/Research/DEA/Sizing Method/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bli408_gatech_edu/Documents/Research/DEA/Sizing_Method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1524" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9640381B-C8CC-44F5-A5DC-CBC040F635A9}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3345" windowWidth="18105" windowHeight="12255" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
+    <workbookView xWindow="12615" yWindow="1770" windowWidth="24495" windowHeight="12555" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Top-Level Requirments" sheetId="4" r:id="rId1"/>
+    <sheet name="Geometry" sheetId="1" r:id="rId2"/>
+    <sheet name="Engine" sheetId="5" r:id="rId3"/>
+    <sheet name="Mission Specifications" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +37,832 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="185">
+  <si>
+    <t>Mission Phases &amp; Segments</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>SI Units</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Typical searing 2-class</t>
+  </si>
+  <si>
+    <t>150-180</t>
+  </si>
+  <si>
+    <t>Overall length</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Wing span</t>
+  </si>
+  <si>
+    <t>Max Mach Number</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Max ramp weight</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Max landing weight</t>
+  </si>
+  <si>
+    <t>Max zero fuel weight</t>
+  </si>
+  <si>
+    <t>Max fuel capacity</t>
+  </si>
+  <si>
+    <t>Cabin length</t>
+  </si>
+  <si>
+    <t>Fuselage width</t>
+  </si>
+  <si>
+    <t>Max cabin width</t>
+  </si>
+  <si>
+    <t>Fan diameter</t>
+  </si>
+  <si>
+    <t>Bypass ratio</t>
+  </si>
+  <si>
+    <t>12.5:1</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Fan case diameter</t>
+  </si>
+  <si>
+    <t>Takeoff thrust</t>
+  </si>
+  <si>
+    <t>Maximum continuous thrust</t>
+  </si>
+  <si>
+    <t>Used Value</t>
+  </si>
+  <si>
+    <t>Max payload</t>
+  </si>
+  <si>
+    <t>Cruise speed</t>
+  </si>
+  <si>
+    <t>Mach</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
+  </si>
+  <si>
+    <t>Max takeoff weight</t>
+  </si>
+  <si>
+    <t>Top-level: A320 neo / A320-200 with Sharklets</t>
+  </si>
+  <si>
+    <t>Wing area</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Wing sweep</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>1951-2100</t>
+  </si>
+  <si>
+    <t>6300-6850</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Altitude, h (m)</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Takeoff</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Warm-up</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>Reserve mission</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weight fraction, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β</t>
+    </r>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Acceleration &amp; Climb</t>
+  </si>
+  <si>
+    <t>Descent</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Landing</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Free Roll</t>
+  </si>
+  <si>
+    <t>Braking</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Loiter</t>
+  </si>
+  <si>
+    <t>Divert</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>MTOW</t>
+  </si>
+  <si>
+    <t>OEW</t>
+  </si>
+  <si>
+    <t>Operating empty weight</t>
+  </si>
+  <si>
+    <t>MLW</t>
+  </si>
+  <si>
+    <t>MZFW</t>
+  </si>
+  <si>
+    <t>MFW</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Power-to-weight ratio</t>
+  </si>
+  <si>
+    <t>Wing load</t>
+  </si>
+  <si>
+    <t>W/S</t>
+  </si>
+  <si>
+    <t>P/W</t>
+  </si>
+  <si>
+    <t>N/m2</t>
+  </si>
+  <si>
+    <t>W/N</t>
+  </si>
+  <si>
+    <t>Mean aerodynamic chord</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Sea-level static thrust</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SL</t>
+    </r>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>26730 litres</t>
+  </si>
+  <si>
+    <t>Sources Value</t>
+  </si>
+  <si>
+    <t>General Arrangement</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Wing Geometry</t>
+  </si>
+  <si>
+    <t>Fuselage</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Aspect ratio</t>
+  </si>
+  <si>
+    <t>Note:
+1. Max ramp weight: The total weight of a loaded aircraft including all fuel. It is greater than the takeoff weight due to the fuel that will be burned during the taxi and run-up operations.</t>
+  </si>
+  <si>
+    <t>Reference:
+1. Airbus A320 Aircraft Characteristics Airport And Maintenance Planning https://www.airbus.com/aircraft/support-services/airport-operations-and-technical-data/aircraft-characteristics.html; 1 December 2018. Retrieved 14 April 2021
+2. "Type certificate Data sheet for Airbus A318 – A319 – A320 – A321". EASA. 10 February 2021.
+3. CSR01 Aircraft; Central Reference Aircraft data System (CeRAS) for research community, available on-line: https://ceras.ilr.rwth-aachen.de/trac/wiki/CeRAS/AircraftDesigns/CSR01; visited on 22 March 2018</t>
+  </si>
+  <si>
+    <t>Design range</t>
+  </si>
+  <si>
+    <t>Note:
+1. Engine used is PW1129G-JM, Used in A320-253N, Certificaiton at 19Aug 2019</t>
+  </si>
+  <si>
+    <t>Reference:
+1. CSR01 Aircraft; Central Reference Aircraft data System (CeRAS) for research community, available on-line: https://ceras.ilr.rwth-aachen.de/trac/wiki/CeRAS/AircraftDesigns/CSR01; visited on 22 March 2018
+2. "Pratt &amp; Whitney Unveils Higher Thrust PurePower Engine" (Press release). Pratt &amp; Whitney. 20 May 2014. Archived from the originalon 14 January 2019. Retrieved 14 April 2021.
+3. "Type Certificate Data Sheet No. IM.E.093 for PW1100G-JM Series Engines" (PDF) (06 ed.). EASA. 27 May 2019. Archived (PDF) from the original on 2019-11-01. Retrieved 14 April 2021.</t>
+  </si>
+  <si>
+    <t>Engine (x 2): Pratt &amp; Whitney PW1100G-JM: high-bypass geared turbofan</t>
+  </si>
+  <si>
+    <t>PAX</t>
+  </si>
+  <si>
+    <t>Initial Cruise Altitude (ICA) after T/O @ MTOW</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>11.9-12.1</t>
+  </si>
+  <si>
+    <t>Design payload (90 kg per PAX)</t>
+  </si>
+  <si>
+    <t>TTC</t>
+  </si>
+  <si>
+    <t>Time-to-climb after T/O @ MTOW (from 500 m to ICA)</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>≈ 25</t>
+  </si>
+  <si>
+    <t>≈ 5800</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35</t>
+    </r>
+  </si>
+  <si>
+    <t>Take-off Field Length (TOFL) @ SL</t>
+  </si>
+  <si>
+    <t>&lt; 1850</t>
+  </si>
+  <si>
+    <t>Top-level: Based on A320 neo / A320-200 with Sharklets</t>
+  </si>
+  <si>
+    <t>Velocity, V (Mach)</t>
+  </si>
+  <si>
+    <t>A-Climb</t>
+  </si>
+  <si>
+    <t>5000km</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 71</t>
+    </r>
+  </si>
+  <si>
+    <t>Δs (km)</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (min)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (km)</t>
+    </r>
+  </si>
+  <si>
+    <t>3 s</t>
+  </si>
+  <si>
+    <t>60 s</t>
+  </si>
+  <si>
+    <t>23 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference:
+1. Airbus A320 Aircraft Characteristics Airport And Maintenance Planning https://www.airbus.com/aircraft/support-services/airport-operations-and-technical-data/aircraft-characteristics.html; 1 December 2018. Retrieved 14 April 2021
+2. "Type certificate Data sheet for Airbus A318 – A319 – A320 – A321". EASA. 10 February 2021.
+3. CSR01 Aircraft; Central Reference Aircraft data System (CeRAS) for research community, available on-line: https://ceras.ilr.rwth-aachen.de/trac/wiki/CeRAS/AircraftDesigns/CSR01; visited on 22 March 2018
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fuel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (kg)</t>
+    </r>
+  </si>
+  <si>
+    <t>≈ 2000</t>
+  </si>
+  <si>
+    <t>2100 m</t>
+  </si>
+  <si>
+    <t>Top-level: Mission Profiles @ MTOW, 5000 km</t>
+  </si>
+  <si>
+    <t>Landing distance (LDN), SL,</t>
+  </si>
+  <si>
+    <t>1400 m</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>L,max (T/O)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>L,max (L/D)</t>
+    </r>
+  </si>
+  <si>
+    <t>kg/h</t>
+  </si>
+  <si>
+    <t>Fuel consumption</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2100</t>
+    </r>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Velocity, V
+(Mach &amp; m/s)</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Take-off speed</t>
+  </si>
+  <si>
+    <t>Stall speed @MTOW, T/O</t>
+  </si>
+  <si>
+    <t>Max. lift coeff. T/O</t>
+  </si>
+  <si>
+    <t>Max. lift coeff. L/D</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>TO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.2V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>TO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>STALL,TO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>STALL,LD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.8C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>L,max (L/D)</t>
+    </r>
+  </si>
+  <si>
+    <t>Touchdown speed</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>TD</t>
+    </r>
+  </si>
+  <si>
+    <t>Stall speed @MTOW, L/D</t>
+  </si>
+  <si>
+    <t>1.15VTD</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>500 m</t>
+  </si>
+  <si>
+    <t>234 m</t>
+  </si>
+  <si>
+    <t>213 m</t>
+  </si>
+  <si>
+    <t>14 s</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>600 m</t>
+  </si>
+  <si>
+    <t>1266 m</t>
+  </si>
+  <si>
+    <t>687 m</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>40 s</t>
+  </si>
+  <si>
+    <t>Other Conditions &amp; Note:
+SI Unit
+ROC: rate of climb
+ROA: rate of acceleration
+A-Climb: Acceleration Climb.
+Divert: Additional range could be included, representing the distance to the nearest other airport or some fixed number of minutes of flight at cruise speedFAA requires 30 min of additional cruise fuel for general-aviation aircraft
+Loiter: For safety you would be wise to carry extra fuel in case your mtended airport is closed, so a loiter of typically 20-30 min (at 10000 ft, {3048 m}) is added.</t>
+  </si>
+  <si>
+    <t>ROC / ROA</t>
+  </si>
+  <si>
+    <t>0/1.6</t>
+  </si>
+  <si>
+    <t>15/</t>
+  </si>
+  <si>
+    <t>13/</t>
+  </si>
+  <si>
+    <t>11/</t>
+  </si>
+  <si>
+    <t>7/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +870,70 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +944,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -61,12 +952,849 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,13 +2108,1897 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5552AF8-B1EE-42F4-AC13-62E80738461D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DC842D-9149-4875-91C8-638CB2D49E80}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="35">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36">
+        <v>180</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="36">
+        <v>16</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="37">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="37">
+        <v>30</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="37">
+        <v>12</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="37">
+        <v>2100</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="37">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="37">
+        <v>78</v>
+      </c>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="37">
+        <v>71</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="37">
+        <v>65</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="37">
+        <v>62</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37">
+        <v>2.87</v>
+      </c>
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="35">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="35">
+        <v>79</v>
+      </c>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="35">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="35">
+        <v>64.3</v>
+      </c>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="37">
+        <v>44.3</v>
+      </c>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="36">
+        <v>20</v>
+      </c>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="36">
+        <v>21384</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60.75" customHeight="1">
+      <c r="A29" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+    </row>
+    <row r="30" spans="1:6" ht="119.25" customHeight="1" thickBot="1">
+      <c r="A30" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5552AF8-B1EE-42F4-AC13-62E80738461D}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
+      <c r="A3" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="47">
+        <v>37.57</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="47">
+        <v>11.76</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="47">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="49">
+        <v>124</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="49">
+        <v>10.34</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="49">
+        <v>25</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="49">
+        <v>4.18</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="47">
+        <v>27.51</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="47">
+        <v>3.95</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="47">
+        <v>3.7</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" ht="114" customHeight="1" thickBot="1">
+      <c r="A16" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="5:7" ht="15" customHeight="1">
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="5:7" ht="15" customHeight="1">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7D32A3-5DEA-4166-9F98-AF0E7A0870D9}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="49">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="49">
+        <v>3.4009999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="49">
+        <v>2.2240000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="49">
+        <v>2857.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18">
+      <c r="A10" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="49">
+        <v>117.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A12" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+    </row>
+    <row r="13" spans="1:4" ht="87.75" customHeight="1" thickBot="1">
+      <c r="A13" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432984C-F238-4EA6-8C26-24B9D92B7625}">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="8.28515625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="135" customHeight="1">
+      <c r="A2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124"/>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="140.25" customHeight="1">
+      <c r="A3" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="117"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="104"/>
+      <c r="M4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="114"/>
+      <c r="U4" s="115"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="102"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="109"/>
+      <c r="U5" s="110"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1">
+      <c r="A6" s="116"/>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="58">
+        <v>0</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0</v>
+      </c>
+      <c r="E8" s="60">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>500</v>
+      </c>
+      <c r="G8" s="8">
+        <v>500</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="18">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="9">
+        <v>100</v>
+      </c>
+      <c r="N8" s="18">
+        <v>3000</v>
+      </c>
+      <c r="O8" s="9">
+        <v>3000</v>
+      </c>
+      <c r="P8" s="9">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>500</v>
+      </c>
+      <c r="R8" s="11">
+        <v>15</v>
+      </c>
+      <c r="S8" s="18">
+        <v>15</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0.78</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="S9" s="26">
+        <v>0.24</v>
+      </c>
+      <c r="T9" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="U9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="86"/>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>78</v>
+      </c>
+      <c r="D10" s="16">
+        <v>78</v>
+      </c>
+      <c r="E10" s="17">
+        <v>85</v>
+      </c>
+      <c r="F10" s="16">
+        <v>100</v>
+      </c>
+      <c r="G10" s="16">
+        <v>150</v>
+      </c>
+      <c r="H10" s="16">
+        <v>165</v>
+      </c>
+      <c r="I10" s="16">
+        <v>200</v>
+      </c>
+      <c r="J10" s="19">
+        <v>225</v>
+      </c>
+      <c r="K10" s="20">
+        <v>235</v>
+      </c>
+      <c r="L10" s="19">
+        <v>235</v>
+      </c>
+      <c r="M10" s="21">
+        <v>71</v>
+      </c>
+      <c r="N10" s="20">
+        <v>165</v>
+      </c>
+      <c r="O10" s="21">
+        <v>165</v>
+      </c>
+      <c r="P10" s="21">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>165</v>
+      </c>
+      <c r="R10" s="19">
+        <v>85</v>
+      </c>
+      <c r="S10" s="20">
+        <v>81</v>
+      </c>
+      <c r="T10" s="21">
+        <v>71</v>
+      </c>
+      <c r="U10" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1">
+      <c r="A12" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="62"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="62"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="61"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27">
+        <v>30</v>
+      </c>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27">
+        <v>30</v>
+      </c>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="92"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="89">
+        <v>30</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27">
+        <v>300</v>
+      </c>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="86"/>
+      <c r="B16" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="89">
+        <v>30</v>
+      </c>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="95">
+        <v>370</v>
+      </c>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="T16" s="96"/>
+      <c r="U16" s="118"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="30"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="92"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="32">
+        <v>140</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="94"/>
+      <c r="B20" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="117"/>
+    </row>
+    <row r="22" spans="1:21" ht="149.25" customHeight="1">
+      <c r="A22" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="107"/>
+    </row>
+    <row r="23" spans="1:21" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A23" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="A23:U23"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A22:U22"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B21:U21"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DECAC13A-CD59-4732-B485-5129A0800055}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Mission Specifications'!B8:U8</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D52E9173-CB76-41AB-B524-5942C54E9EBD}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Mission Specifications'!B9:U9</xm:f>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Sizing_Method/Mission.xlsx
+++ b/Sizing_Method/Mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bli408_gatech_edu/Documents/Research/DEA/Sizing_Method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1524" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9640381B-C8CC-44F5-A5DC-CBC040F635A9}"/>
+  <xr:revisionPtr revIDLastSave="1570" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{177C0F27-3DE6-4488-8CC8-2B0B8494AD8E}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="1770" windowWidth="24495" windowHeight="12555" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
+    <workbookView xWindow="465" yWindow="1650" windowWidth="23175" windowHeight="12555" activeTab="3" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
   </bookViews>
   <sheets>
     <sheet name="Top-Level Requirments" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Mission Specifications" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="180">
   <si>
     <t>Mission Phases &amp; Segments</t>
   </si>
@@ -469,21 +468,6 @@
   </si>
   <si>
     <t>5000km</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 71</t>
-    </r>
   </si>
   <si>
     <t>Δs (km)</t>
@@ -510,30 +494,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (min)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (km)</t>
     </r>
   </si>
   <si>
@@ -804,22 +764,7 @@
     <t>500 m</t>
   </si>
   <si>
-    <t>234 m</t>
-  </si>
-  <si>
     <t>213 m</t>
-  </si>
-  <si>
-    <t>14 s</t>
-  </si>
-  <si>
-    <t>7s</t>
-  </si>
-  <si>
-    <t>600 m</t>
-  </si>
-  <si>
-    <t>1266 m</t>
   </si>
   <si>
     <t>687 m</t>
@@ -840,22 +785,39 @@
 Loiter: For safety you would be wise to carry extra fuel in case your mtended airport is closed, so a loiter of typically 20-30 min (at 10000 ft, {3048 m}) is added.</t>
   </si>
   <si>
-    <t>ROC / ROA</t>
-  </si>
-  <si>
-    <t>0/1.6</t>
-  </si>
-  <si>
-    <t>15/</t>
-  </si>
-  <si>
-    <t>13/</t>
-  </si>
-  <si>
-    <t>11/</t>
-  </si>
-  <si>
-    <t>7/</t>
+    <t>0.7s</t>
+  </si>
+  <si>
+    <t>60 m</t>
+  </si>
+  <si>
+    <t>250 m</t>
+  </si>
+  <si>
+    <t>1790 m</t>
+  </si>
+  <si>
+    <t>46 s</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <r>
+      <t>A-Climb @10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1420,7 +1382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1462,9 +1424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1612,6 +1571,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1663,33 +1625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1726,11 +1661,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1750,7 +1685,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1765,24 +1745,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1793,6 +1755,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2111,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DC842D-9149-4875-91C8-638CB2D49E80}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2134,408 +2099,406 @@
       <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>5000</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35">
         <v>180</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>16</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>0.82</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0.78</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>10</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>30</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>12</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>2100</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="36">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="36">
+        <v>78</v>
+      </c>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="36">
+        <v>63</v>
+      </c>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="36">
+        <v>65</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="36">
+        <v>55</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="37">
-        <v>1400</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="37">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36">
+        <v>2.87</v>
+      </c>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="34">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="34">
+        <v>79</v>
+      </c>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="34">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="34">
+        <v>64.3</v>
+      </c>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="37">
-        <v>71</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="37">
-        <v>65</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="37">
-        <v>62</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="54" t="s">
+      <c r="B25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="36">
+        <v>44.3</v>
+      </c>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="35">
+        <v>20</v>
+      </c>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37">
-        <v>2.87</v>
-      </c>
-      <c r="E20" s="44"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="35">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="35">
-        <v>79</v>
-      </c>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="35">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="35">
-        <v>64.3</v>
-      </c>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="37">
-        <v>44.3</v>
-      </c>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="36">
-        <v>20</v>
-      </c>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36" t="s">
+      <c r="D27" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <v>21384</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2595,16 +2558,16 @@
       <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2617,28 +2580,28 @@
       <c r="D3" s="81"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>37.57</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>11.76</v>
       </c>
       <c r="E5"/>
@@ -2655,7 +2618,7 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2664,14 +2627,14 @@
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>35.799999999999997</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2680,40 +2643,40 @@
       <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>124</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>10.34</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>25</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2722,7 +2685,7 @@
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>4.18</v>
       </c>
       <c r="E11"/>
@@ -2739,42 +2702,42 @@
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>27.51</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>3.95</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>3.7</v>
       </c>
       <c r="E15"/>
@@ -2876,91 +2839,91 @@
       <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>2.06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>3.4009999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>2.2240000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>2857.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2969,19 +2932,19 @@
       <c r="C10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>117.19</v>
       </c>
     </row>
@@ -3014,18 +2977,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432984C-F238-4EA6-8C26-24B9D92B7625}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8" style="3" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="3" customWidth="1"/>
@@ -3040,32 +3004,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
+      <c r="A1" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="112"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="135" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="123"/>
@@ -3090,102 +3054,102 @@
       <c r="U2" s="124"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="140.25" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="125"/>
       <c r="C3" s="125"/>
       <c r="D3" s="125"/>
       <c r="E3" s="125"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="117"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="105"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="112" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="103" t="s">
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="104"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="103" t="s">
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="114"/>
-      <c r="U4" s="115"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="121"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1">
-      <c r="A5" s="116"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="119" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="101" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="102"/>
+      <c r="L5" s="93"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="108" t="s">
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="110"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1">
-      <c r="A6" s="116"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
@@ -3211,7 +3175,7 @@
         <v>67</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>72</v>
@@ -3226,13 +3190,13 @@
         <v>101</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>100</v>
@@ -3243,87 +3207,87 @@
       <c r="T6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="28" t="s">
-        <v>176</v>
+      <c r="U6" s="27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1">
-      <c r="A7" s="86"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>127</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="20" t="s">
         <v>66</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>66</v>
       </c>
       <c r="S7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="29" t="s">
+      <c r="U7" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="57">
         <v>0</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="58">
         <v>0</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="58">
         <v>0</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="59">
         <v>10</v>
       </c>
       <c r="F8" s="8">
@@ -3341,7 +3305,7 @@
       <c r="J8" s="11">
         <v>10000</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>10000</v>
       </c>
       <c r="L8" s="11">
@@ -3350,7 +3314,7 @@
       <c r="M8" s="9">
         <v>100</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>3000</v>
       </c>
       <c r="O8" s="9">
@@ -3365,158 +3329,158 @@
       <c r="R8" s="11">
         <v>15</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <v>15</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="21">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>0.23</v>
       </c>
-      <c r="D9" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="D9" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="E9" s="23">
         <v>0.25</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>0.3</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>0.45</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>0.5</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>0.6</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>0.75</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>0.78</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="24">
         <v>0.78</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <v>0.21</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <v>0.5</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="26">
         <v>0.5</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="26">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="26">
         <v>0.5</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="24">
         <v>0.25</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="25">
         <v>0.24</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="26">
         <v>0.21</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="86"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="14">
         <v>0</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>78</v>
       </c>
-      <c r="D10" s="16">
-        <v>78</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="15">
+        <v>84</v>
+      </c>
+      <c r="E10" s="16">
         <v>85</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>100</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>150</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>165</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>200</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>225</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>235</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <v>235</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <v>71</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>165</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>165</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="20">
         <v>165</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="20">
         <v>165</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="18">
         <v>85</v>
       </c>
-      <c r="S10" s="20">
-        <v>81</v>
-      </c>
-      <c r="T10" s="21">
-        <v>71</v>
-      </c>
-      <c r="U10" s="31">
+      <c r="S10" s="19">
+        <v>70</v>
+      </c>
+      <c r="T10" s="20">
+        <v>63</v>
+      </c>
+      <c r="U10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>0.98799999999999999</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>0.98399999999999999</v>
       </c>
       <c r="F11" s="8">
@@ -3534,7 +3498,7 @@
       <c r="J11" s="11">
         <v>0.95</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>0.94799999999999995</v>
       </c>
       <c r="L11" s="11">
@@ -3543,7 +3507,7 @@
       <c r="M11" s="9">
         <v>0.78</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <v>0.78</v>
       </c>
       <c r="O11" s="9">
@@ -3558,399 +3522,362 @@
       <c r="R11" s="11">
         <v>0.7</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <v>0.7</v>
       </c>
       <c r="T11" s="9">
         <v>0.7</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="27">
         <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="62"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="61"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="91" t="s">
+      <c r="A12" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58">
+        <v>0</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58">
+        <v>13</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58">
+        <v>11</v>
+      </c>
+      <c r="I12" s="63"/>
+      <c r="J12" s="60">
+        <v>7</v>
+      </c>
+      <c r="K12" s="61"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="62">
+        <v>15</v>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="60">
+        <v>7</v>
+      </c>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="60"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="E14" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26">
+        <v>30</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26">
+        <v>30</v>
+      </c>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="83"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="94">
+        <v>30</v>
+      </c>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26">
+        <v>300</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26">
+        <v>0</v>
+      </c>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="104"/>
+      <c r="B17" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="94">
+        <v>30</v>
+      </c>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="86">
+        <v>370</v>
+      </c>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="T17" s="87"/>
+      <c r="U17" s="106"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="31">
+        <v>140</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="29"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="85"/>
+      <c r="B19" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="105"/>
+    </row>
+    <row r="21" spans="1:21" ht="149.25" customHeight="1">
+      <c r="A21" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="98"/>
+    </row>
+    <row r="22" spans="1:21" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A22" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27">
-        <v>30</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27">
-        <v>30</v>
-      </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="U13" s="30"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="92"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="89">
-        <v>30</v>
-      </c>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="31"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27">
-        <v>300</v>
-      </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27">
-        <v>0</v>
-      </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="86"/>
-      <c r="B16" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="89">
-        <v>30</v>
-      </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="95">
-        <v>370</v>
-      </c>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="T16" s="96"/>
-      <c r="U16" s="118"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="30"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="92"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="31"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="32">
-        <v>140</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="30"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="94"/>
-      <c r="B20" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="31"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="117"/>
-    </row>
-    <row r="22" spans="1:21" ht="149.25" customHeight="1">
-      <c r="A22" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="107"/>
-    </row>
-    <row r="23" spans="1:21" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A23" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="100"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="A23:U23"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A22:U22"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B21:U21"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="N5:R5"/>
+  <mergeCells count="29">
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:J4"/>
@@ -3959,12 +3886,42 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="B3:U3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="A22:U22"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="A21:U21"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B20:U20"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="N5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D52E9173-CB76-41AB-B524-5942C54E9EBD}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Mission Specifications'!B9:U9</xm:f>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DECAC13A-CD59-4732-B485-5129A0800055}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -3981,22 +3938,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D52E9173-CB76-41AB-B524-5942C54E9EBD}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Mission Specifications'!B9:U9</xm:f>
-              <xm:sqref>B3</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/Sizing_Method/Mission.xlsx
+++ b/Sizing_Method/Mission.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bli408_gatech_edu/Documents/Research/DEA/Sizing_Method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1570" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{177C0F27-3DE6-4488-8CC8-2B0B8494AD8E}"/>
+  <xr:revisionPtr revIDLastSave="1841" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7982FED1-0C47-4C9C-84A9-9A14F63EF8DC}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1650" windowWidth="23175" windowHeight="12555" activeTab="3" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
+    <workbookView xWindow="4392" yWindow="6936" windowWidth="23040" windowHeight="12264" activeTab="3" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
   </bookViews>
   <sheets>
     <sheet name="Top-Level Requirments" sheetId="4" r:id="rId1"/>
     <sheet name="Geometry" sheetId="1" r:id="rId2"/>
     <sheet name="Engine" sheetId="5" r:id="rId3"/>
     <sheet name="Mission Specifications" sheetId="3" r:id="rId4"/>
+    <sheet name="Constrains Analysis" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="204">
   <si>
     <t>Mission Phases &amp; Segments</t>
   </si>
@@ -138,9 +139,6 @@
     <t>Max payload</t>
   </si>
   <si>
-    <t>Cruise speed</t>
-  </si>
-  <si>
     <t>Mach</t>
   </si>
   <si>
@@ -165,9 +163,6 @@
     <t>degrees</t>
   </si>
   <si>
-    <t>1951-2100</t>
-  </si>
-  <si>
     <t>6300-6850</t>
   </si>
   <si>
@@ -199,9 +194,6 @@
   </si>
   <si>
     <t>2-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
   </si>
   <si>
     <t>4-5</t>
@@ -264,9 +256,6 @@
   </si>
   <si>
     <t>Braking</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>Loiter</t>
@@ -419,9 +408,6 @@
     <t>11.9-12.1</t>
   </si>
   <si>
-    <t>Design payload (90 kg per PAX)</t>
-  </si>
-  <si>
     <t>TTC</t>
   </si>
   <si>
@@ -432,9 +418,6 @@
   </si>
   <si>
     <t>≈ 25</t>
-  </si>
-  <si>
-    <t>≈ 5800</t>
   </si>
   <si>
     <r>
@@ -473,37 +456,10 @@
     <t>Δs (km)</t>
   </si>
   <si>
-    <r>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (min)</t>
-    </r>
-  </si>
-  <si>
     <t>3 s</t>
   </si>
   <si>
     <t>60 s</t>
-  </si>
-  <si>
-    <t>23 s</t>
   </si>
   <si>
     <t xml:space="preserve">Reference:
@@ -538,12 +494,6 @@
   </si>
   <si>
     <t>≈ 2000</t>
-  </si>
-  <si>
-    <t>2100 m</t>
-  </si>
-  <si>
-    <t>Top-level: Mission Profiles @ MTOW, 5000 km</t>
   </si>
   <si>
     <t>Landing distance (LDN), SL,</t>
@@ -773,41 +723,66 @@
     <t>u</t>
   </si>
   <si>
-    <t>40 s</t>
-  </si>
-  <si>
-    <t>Other Conditions &amp; Note:
+    <t>Top-level: Mission Profiles @ 76 t, 5000 km</t>
+  </si>
+  <si>
+    <t>A-Climb @8°</t>
+  </si>
+  <si>
+    <t>38 s</t>
+  </si>
+  <si>
+    <t>BCM</t>
+  </si>
+  <si>
+    <t>Best Cruise Mach number</t>
+  </si>
+  <si>
+    <t>≈ 6000</t>
+  </si>
+  <si>
+    <t>Best cruise altitude</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other Conditions &amp; Note:
 SI Unit
 ROC: rate of climb
-ROA: rate of acceleration
+ROA: rate of acceleration, takeoff ROA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> takeoff Trust / takeoff mass = (130-10) / 76 ≈ 1.6, where D ≈ 9-10 t, D = 0.25/2.3*(L) from drag polar plot.
 A-Climb: Acceleration Climb.
 Divert: Additional range could be included, representing the distance to the nearest other airport or some fixed number of minutes of flight at cruise speedFAA requires 30 min of additional cruise fuel for general-aviation aircraft
 Loiter: For safety you would be wise to carry extra fuel in case your mtended airport is closed, so a loiter of typically 20-30 min (at 10000 ft, {3048 m}) is added.</t>
-  </si>
-  <si>
-    <t>0.7s</t>
-  </si>
-  <si>
-    <t>60 m</t>
-  </si>
-  <si>
-    <t>250 m</t>
-  </si>
-  <si>
-    <t>1790 m</t>
-  </si>
-  <si>
-    <t>46 s</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROC</t>
+    </r>
+  </si>
+  <si>
+    <t>3s</t>
   </si>
   <si>
     <r>
-      <t>A-Climb @10</t>
+      <t>A-Climb @2.5</t>
     </r>
     <r>
       <rPr>
@@ -818,6 +793,163 @@
       </rPr>
       <t>°</t>
     </r>
+  </si>
+  <si>
+    <t>43 s</t>
+  </si>
+  <si>
+    <t>215 m</t>
+  </si>
+  <si>
+    <t>230 m</t>
+  </si>
+  <si>
+    <t>&lt; 1951-2100</t>
+  </si>
+  <si>
+    <t>1480 m</t>
+  </si>
+  <si>
+    <t>1925 m</t>
+  </si>
+  <si>
+    <t>100 s</t>
+  </si>
+  <si>
+    <t>50 s</t>
+  </si>
+  <si>
+    <t>227 s</t>
+  </si>
+  <si>
+    <t>ROA (m/s)</t>
+  </si>
+  <si>
+    <t>ROC (m/s)</t>
+  </si>
+  <si>
+    <t>70 s</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>4.5 min</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>11 min</t>
+  </si>
+  <si>
+    <t>68.5 min</t>
+  </si>
+  <si>
+    <t>Design payload (100 kg per PAX)</t>
+  </si>
+  <si>
+    <t>1300 s</t>
+  </si>
+  <si>
+    <t>5 h</t>
+  </si>
+  <si>
+    <t>Constrains Analysis Top-Level Requirments</t>
+  </si>
+  <si>
+    <t>Design gross weight shall be 76 tones.</t>
+  </si>
+  <si>
+    <t>It must sustain turn rate 3 m/s (2 min for 360 degree turn) while cruising at 235 m/s (0.78 Mach) at 10000 m.</t>
+  </si>
+  <si>
+    <t>It must be capable of operating from short runways in which the ground run is no greater than 1480 m and liftoff speed of 68 m/s at design gross weight.</t>
+  </si>
+  <si>
+    <t>It must be capable of a cruising speed of at least 0.78 Mach (235 m/s) at 10000 m.</t>
+  </si>
+  <si>
+    <t>The designer’s initial target is a minimum drag coefficient of 0.02 and an aspect ratio of 10.3.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ground friction coefficient for the T-O requirement is 0.04, the T-O lift and drag coefficients are C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L,TO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.8 and C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D, TO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.03</t>
+    </r>
+  </si>
+  <si>
+    <t>It must be capable of climbing at least ROC=15 m/s at 100 m/s at S-L, ROC=10 m/s at 200 m/s at 3000 m, ROC=5 m/s at 250 m/s at 7000 m</t>
+  </si>
+  <si>
+    <t>It must be capable of a service ceiling of at least 12000 m, ROC=0.508 m/s (100fpm).</t>
+  </si>
+  <si>
+    <t>Maximum lift coefficient = 2.3, the stalling speed for take off is 65 m/s</t>
   </si>
 </sst>
 </file>
@@ -898,15 +1030,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1378,11 +1522,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,76 +1570,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,9 +1600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,12 +1648,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,12 +1657,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,11 +1675,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1625,10 +1846,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1655,12 +1879,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1676,89 +1894,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2074,456 +2304,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DC842D-9149-4875-91C8-638CB2D49E80}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="A1" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18">
+        <v>180</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="18">
+        <v>18</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.78</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>10</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="19">
+        <v>30</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1925</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="19">
+        <v>78</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="19">
+        <v>63</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="19">
+        <v>65</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="19">
+        <v>55</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19">
+        <v>2.87</v>
+      </c>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="17">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="17">
+        <v>79</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="34">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35">
-        <v>180</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="35">
-        <v>16</v>
-      </c>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0.78</v>
-      </c>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="36">
-        <v>10</v>
-      </c>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="36">
-        <v>30</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="36">
-        <v>12</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="36">
-        <v>2100</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="36">
-        <v>1400</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="36">
-        <v>78</v>
-      </c>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="36">
-        <v>63</v>
-      </c>
-      <c r="E16" s="43"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="36">
-        <v>65</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="36">
-        <v>55</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36">
-        <v>2.87</v>
-      </c>
-      <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="34">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="35" t="s">
+      <c r="C24" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="17">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="34">
+      <c r="C25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="35" t="s">
+      <c r="D25" s="17">
+        <v>64.3</v>
+      </c>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="34">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="34">
-        <v>64.3</v>
-      </c>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="35" t="s">
+      <c r="D26" s="19">
+        <v>44.3</v>
+      </c>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="18">
+        <v>20</v>
+      </c>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="36">
-        <v>44.3</v>
-      </c>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="35">
-        <v>20</v>
-      </c>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="C29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D29" s="18">
         <v>21384</v>
       </c>
-      <c r="E28" s="39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A29" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-    </row>
-    <row r="30" spans="1:6" ht="119.25" customHeight="1" thickBot="1">
-      <c r="A30" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="E29" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60.75" customHeight="1">
+      <c r="A30" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+    </row>
+    <row r="31" spans="1:6" ht="119.25" customHeight="1" thickBot="1">
+      <c r="A31" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,221 +2782,221 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="29">
         <v>37.57</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="29">
         <v>11.76</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81"/>
+      <c r="A6" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="29">
         <v>35.799999999999997</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="48">
+      <c r="D8" s="31">
         <v>124</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="47" t="s">
-        <v>105</v>
+      <c r="A9" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="48">
+      <c r="D9" s="31">
         <v>10.34</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="47" t="s">
-        <v>40</v>
+      <c r="A10" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="48">
+        <v>40</v>
+      </c>
+      <c r="D10" s="31">
         <v>25</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
-        <v>90</v>
+      <c r="A11" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="31">
         <v>4.18</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
+      <c r="A12" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="29">
         <v>27.51</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="29">
         <v>3.95</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="29">
         <v>3.7</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" ht="114" customHeight="1" thickBot="1">
-      <c r="A16" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
+      <c r="A16" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
       <c r="E16"/>
       <c r="F16"/>
     </row>
@@ -2811,158 +3058,158 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
+      <c r="A2" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="31">
         <v>2.06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="31">
         <v>3.4009999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="31">
         <v>2.2240000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="31">
         <v>2857.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="31">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="49" t="s">
-        <v>92</v>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="48">
+        <v>90</v>
+      </c>
+      <c r="D10" s="31">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="31">
         <v>117.19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A12" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
     </row>
     <row r="13" spans="1:4" ht="87.75" customHeight="1" thickBot="1">
-      <c r="A13" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2977,929 +3224,992 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432984C-F238-4EA6-8C26-24B9D92B7625}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:U20"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="17" width="8.28515625" style="1" customWidth="1"/>
-    <col min="18" max="21" width="9.140625" style="1"/>
+    <col min="10" max="10" width="8.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.33203125" style="1" customWidth="1"/>
+    <col min="17" max="20" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="127"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="135" customHeight="1">
+      <c r="A2" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="142"/>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="140.25" customHeight="1">
+      <c r="A3" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="145"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="A4" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="138"/>
+      <c r="T4" s="140"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
+      <c r="A5" s="118"/>
+      <c r="B5" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="115"/>
+      <c r="T5" s="116"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="118"/>
+      <c r="B6" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="112"/>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="135" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="P6" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
+      <c r="A7" s="119"/>
+      <c r="B7" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="L8" s="41">
+        <v>0.78</v>
+      </c>
+      <c r="M8" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="N8" s="41">
+        <v>0.77</v>
+      </c>
+      <c r="O8" s="41">
+        <v>0.72</v>
+      </c>
+      <c r="P8" s="41">
+        <v>0.72</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="R8" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="S8" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="T8" s="77">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1">
+      <c r="A9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="124"/>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="140.25" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="B9" s="54">
+        <v>0</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46">
+        <v>10</v>
+      </c>
+      <c r="F9" s="55">
+        <v>500</v>
+      </c>
+      <c r="G9" s="55">
+        <v>500</v>
+      </c>
+      <c r="H9" s="55">
+        <v>3000</v>
+      </c>
+      <c r="I9" s="55">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="7">
+        <v>11300</v>
+      </c>
+      <c r="K9" s="7">
+        <v>11300</v>
+      </c>
+      <c r="L9" s="48">
+        <v>100</v>
+      </c>
+      <c r="M9" s="47">
+        <v>3000</v>
+      </c>
+      <c r="N9" s="48">
+        <v>3000</v>
+      </c>
+      <c r="O9" s="48">
+        <v>500</v>
+      </c>
+      <c r="P9" s="48">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>15</v>
+      </c>
+      <c r="R9" s="48">
+        <v>15</v>
+      </c>
+      <c r="S9" s="48">
+        <v>0</v>
+      </c>
+      <c r="T9" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="53">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="129"/>
+      <c r="B11" s="54">
+        <v>0</v>
+      </c>
+      <c r="C11" s="45">
+        <v>68</v>
+      </c>
+      <c r="D11" s="45">
+        <v>73</v>
+      </c>
+      <c r="E11" s="46">
+        <v>78</v>
+      </c>
+      <c r="F11" s="45">
+        <v>100</v>
+      </c>
+      <c r="G11" s="45">
+        <v>150</v>
+      </c>
+      <c r="H11" s="45">
+        <v>165</v>
+      </c>
+      <c r="I11" s="45">
+        <v>200</v>
+      </c>
+      <c r="J11" s="44">
+        <v>230</v>
+      </c>
+      <c r="K11" s="44">
+        <v>230</v>
+      </c>
+      <c r="L11" s="43">
+        <v>70</v>
+      </c>
+      <c r="M11" s="42">
+        <v>165</v>
+      </c>
+      <c r="N11" s="43">
+        <v>165</v>
+      </c>
+      <c r="O11" s="43">
+        <v>165</v>
+      </c>
+      <c r="P11" s="43">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>85</v>
+      </c>
+      <c r="R11" s="43">
+        <v>70</v>
+      </c>
+      <c r="S11" s="43">
+        <v>63</v>
+      </c>
+      <c r="T11" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
+      <c r="A12" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9">
+        <v>13</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>11</v>
+      </c>
+      <c r="I12" s="56">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>7</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>15</v>
+      </c>
+      <c r="M12" s="12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>15</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>7</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
+      <c r="A13" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="55">
+        <v>1.6</v>
+      </c>
+      <c r="D13" s="55">
+        <v>1.6</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="55">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I13" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="N13" s="48">
+        <v>0</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" s="78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="133"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="S15" s="105"/>
+      <c r="T15" s="121"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="53">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9">
+        <v>13</v>
+      </c>
+      <c r="H16" s="9">
+        <v>36</v>
+      </c>
+      <c r="I16" s="9">
+        <v>13</v>
+      </c>
+      <c r="J16" s="10">
+        <v>113</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="13">
+        <v>100</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13">
+        <v>300</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="129"/>
+      <c r="B17" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="110">
+        <v>178</v>
+      </c>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="43">
+        <v>100</v>
+      </c>
+      <c r="M17" s="104">
+        <v>370</v>
+      </c>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="105"/>
+      <c r="T17" s="121"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="15">
+        <v>140</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="103"/>
+      <c r="B19" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="52"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="120"/>
+    </row>
+    <row r="21" spans="1:20" ht="149.25" customHeight="1">
+      <c r="A21" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="114"/>
+    </row>
+    <row r="22" spans="1:20" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A22" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="105"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1">
-      <c r="A4" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="116"/>
-      <c r="M4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="120"/>
-      <c r="U4" s="121"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" s="93"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="100"/>
-      <c r="U5" s="101"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1">
-      <c r="A8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="57">
-        <v>0</v>
-      </c>
-      <c r="C8" s="58">
-        <v>0</v>
-      </c>
-      <c r="D8" s="58">
-        <v>0</v>
-      </c>
-      <c r="E8" s="59">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8">
-        <v>500</v>
-      </c>
-      <c r="G8" s="8">
-        <v>500</v>
-      </c>
-      <c r="H8" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I8" s="8">
-        <v>3000</v>
-      </c>
-      <c r="J8" s="11">
-        <v>10000</v>
-      </c>
-      <c r="K8" s="17">
-        <v>10000</v>
-      </c>
-      <c r="L8" s="11">
-        <v>10000</v>
-      </c>
-      <c r="M8" s="9">
-        <v>100</v>
-      </c>
-      <c r="N8" s="17">
-        <v>3000</v>
-      </c>
-      <c r="O8" s="9">
-        <v>3000</v>
-      </c>
-      <c r="P8" s="9">
-        <v>500</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>500</v>
-      </c>
-      <c r="R8" s="11">
-        <v>15</v>
-      </c>
-      <c r="S8" s="17">
-        <v>15</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.23</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.24</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.45</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="J9" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0.78</v>
-      </c>
-      <c r="L9" s="24">
-        <v>0.78</v>
-      </c>
-      <c r="M9" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="R9" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="S9" s="25">
-        <v>0.24</v>
-      </c>
-      <c r="T9" s="26">
-        <v>0.21</v>
-      </c>
-      <c r="U9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="104"/>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>78</v>
-      </c>
-      <c r="D10" s="15">
-        <v>84</v>
-      </c>
-      <c r="E10" s="16">
-        <v>85</v>
-      </c>
-      <c r="F10" s="15">
-        <v>100</v>
-      </c>
-      <c r="G10" s="15">
-        <v>150</v>
-      </c>
-      <c r="H10" s="15">
-        <v>165</v>
-      </c>
-      <c r="I10" s="15">
-        <v>200</v>
-      </c>
-      <c r="J10" s="18">
-        <v>225</v>
-      </c>
-      <c r="K10" s="19">
-        <v>235</v>
-      </c>
-      <c r="L10" s="18">
-        <v>235</v>
-      </c>
-      <c r="M10" s="20">
-        <v>71</v>
-      </c>
-      <c r="N10" s="19">
-        <v>165</v>
-      </c>
-      <c r="O10" s="20">
-        <v>165</v>
-      </c>
-      <c r="P10" s="20">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>165</v>
-      </c>
-      <c r="R10" s="18">
-        <v>85</v>
-      </c>
-      <c r="S10" s="19">
-        <v>70</v>
-      </c>
-      <c r="T10" s="20">
-        <v>63</v>
-      </c>
-      <c r="U10" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="K11" s="17">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.78</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="N11" s="17">
-        <v>0.78</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0.77</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="S11" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="U11" s="27">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
-      <c r="A12" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58">
-        <v>0</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58">
-        <v>13</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58">
-        <v>11</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="60">
-        <v>7</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="62">
-        <v>15</v>
-      </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60">
-        <v>7</v>
-      </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="113" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26">
-        <v>30</v>
-      </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26">
-        <v>30</v>
-      </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="T14" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="83"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="94">
-        <v>30</v>
-      </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="30"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="21">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26">
-        <v>300</v>
-      </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26">
-        <v>0</v>
-      </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="T16" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="U16" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="104"/>
-      <c r="B17" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="94">
-        <v>30</v>
-      </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="86">
-        <v>370</v>
-      </c>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="T17" s="87"/>
-      <c r="U17" s="106"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="31">
-        <v>140</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="29"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="85"/>
-      <c r="B19" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="30"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="105"/>
-    </row>
-    <row r="21" spans="1:21" ht="149.25" customHeight="1">
-      <c r="A21" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="98"/>
-    </row>
-    <row r="22" spans="1:21" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A22" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="91"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:J4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B3:T3"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="A22:U22"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="A22:T22"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A21:U21"/>
-    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="A21:T21"/>
+    <mergeCell ref="R5:T5"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B20:U20"/>
-    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="B20:T20"/>
+    <mergeCell ref="R17:T17"/>
     <mergeCell ref="F5:J5"/>
-    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3917,7 +4227,7 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Mission Specifications'!B9:U9</xm:f>
+              <xm:f>'Mission Specifications'!B10:T10</xm:f>
               <xm:sqref>B3</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -3933,7 +4243,7 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Mission Specifications'!B8:U8</xm:f>
+              <xm:f>'Mission Specifications'!B9:T9</xm:f>
               <xm:sqref>B2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -3942,4 +4252,137 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8CBAA4-62E9-4CA0-B764-0B88AF730CA7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="129.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="146"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f t="shared" ref="A4:A14" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sizing_Method/Mission.xlsx
+++ b/Sizing_Method/Mission.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1841" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7982FED1-0C47-4C9C-84A9-9A14F63EF8DC}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="6936" windowWidth="23040" windowHeight="12264" activeTab="3" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
   </bookViews>
   <sheets>
     <sheet name="Top-Level Requirments" sheetId="4" r:id="rId1"/>
@@ -1846,6 +1846,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1862,9 +1937,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1879,12 +1951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,9 +1978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,69 +1986,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2306,16 +2306,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DC842D-9149-4875-91C8-638CB2D49E80}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2540,7 +2540,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5">
       <c r="A16" s="25" t="s">
         <v>142</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6">
       <c r="A17" s="25" t="s">
         <v>151</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6">
       <c r="A18" s="25" t="s">
         <v>143</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6">
       <c r="A19" s="25" t="s">
         <v>153</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6">
       <c r="A20" s="33" t="s">
         <v>144</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6">
       <c r="A21" s="33" t="s">
         <v>145</v>
       </c>
@@ -2781,19 +2781,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5552AF8-B1EE-42F4-AC13-62E80738461D}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -3061,12 +3061,12 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3169,7 +3169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6">
+    <row r="10" spans="1:4" ht="18">
       <c r="A10" s="32" t="s">
         <v>88</v>
       </c>
@@ -3226,167 +3226,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432984C-F238-4EA6-8C26-24B9D92B7625}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
     <col min="6" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.33203125" style="1" customWidth="1"/>
-    <col min="17" max="20" width="9.109375" style="1"/>
+    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.28515625" style="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="127"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="101"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="135" customHeight="1">
       <c r="A2" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="142"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="118"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="140.25" customHeight="1">
       <c r="A3" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="145"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="121"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="136"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="112"/>
       <c r="K4" s="80"/>
       <c r="L4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="137" t="s">
+      <c r="M4" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="138" t="s">
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="138"/>
-      <c r="T4" s="140"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="116"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="99" t="s">
+      <c r="A5" s="140"/>
+      <c r="B5" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="100" t="s">
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
       <c r="K5" s="81"/>
       <c r="L5" s="63"/>
-      <c r="M5" s="122" t="s">
+      <c r="M5" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="115" t="s">
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="115"/>
-      <c r="T5" s="116"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="138"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="118"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="64" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3446,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="119"/>
+      <c r="A7" s="141"/>
       <c r="B7" s="69" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="102" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="53">
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="129"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="54">
         <v>0</v>
       </c>
@@ -3876,10 +3876,10 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="104" t="s">
         <v>125</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3938,39 +3938,39 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="133"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="110" t="s">
+      <c r="A15" s="109"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="110" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="111"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
       <c r="K15" s="44"/>
       <c r="L15" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="M15" s="104" t="s">
+      <c r="M15" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="105" t="s">
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="S15" s="105"/>
-      <c r="T15" s="121"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="123"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="102" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="53">
@@ -4024,39 +4024,39 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="129"/>
-      <c r="B17" s="131" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="110">
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="106">
         <v>178</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="111"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
       <c r="K17" s="46"/>
       <c r="L17" s="43">
         <v>100</v>
       </c>
-      <c r="M17" s="104">
+      <c r="M17" s="129">
         <v>370</v>
       </c>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="105" t="s">
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="S17" s="105"/>
-      <c r="T17" s="121"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="123"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="127" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="15">
@@ -4082,18 +4082,18 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="103"/>
-      <c r="B19" s="110" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
@@ -4109,78 +4109,91 @@
       <c r="A20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="120"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="142"/>
     </row>
     <row r="21" spans="1:20" ht="149.25" customHeight="1">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="114"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="136"/>
     </row>
     <row r="22" spans="1:20" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="109"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B20:T20"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="A21:T21"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B14:B15"/>
@@ -4196,26 +4209,29 @@
     <mergeCell ref="B3:T3"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A21:T21"/>
     <mergeCell ref="R5:T5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B20:T20"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DECAC13A-CD59-4732-B485-5129A0800055}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Mission Specifications'!B9:T9</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D52E9173-CB76-41AB-B524-5942C54E9EBD}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -4229,22 +4245,6 @@
             <x14:sparkline>
               <xm:f>'Mission Specifications'!B10:T10</xm:f>
               <xm:sqref>B3</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DECAC13A-CD59-4732-B485-5129A0800055}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Mission Specifications'!B9:T9</xm:f>
-              <xm:sqref>B2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -4262,10 +4262,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="129.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="129.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>

--- a/Sizing_Method/Mission.xlsx
+++ b/Sizing_Method/Mission.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1841" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7982FED1-0C47-4C9C-84A9-9A14F63EF8DC}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
+    <workbookView xWindow="960" yWindow="2445" windowWidth="19035" windowHeight="10455" firstSheet="1" activeTab="1" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
   </bookViews>
   <sheets>
     <sheet name="Top-Level Requirments" sheetId="4" r:id="rId1"/>
@@ -1846,101 +1846,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1951,6 +1903,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1960,31 +1915,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DC842D-9149-4875-91C8-638CB2D49E80}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2782,7 +2782,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3226,9 +3226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432984C-F238-4EA6-8C26-24B9D92B7625}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <selection pane="topRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3250,143 +3250,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="101"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="124"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="135" customHeight="1">
       <c r="A2" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="118"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="140.25" customHeight="1">
       <c r="A3" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="121"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="133"/>
       <c r="K4" s="80"/>
       <c r="L4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="114" t="s">
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="114"/>
-      <c r="T4" s="116"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="137"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="124" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="125" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="81"/>
       <c r="L5" s="63"/>
-      <c r="M5" s="143" t="s">
+      <c r="M5" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="137" t="s">
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="137"/>
-      <c r="T5" s="138"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="145"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="140"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="64" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3446,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="141"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="69" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="125" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="53">
@@ -3692,7 +3692,7 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="103"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="54">
         <v>0</v>
       </c>
@@ -3876,10 +3876,10 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="127" t="s">
         <v>125</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3938,39 +3938,39 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="109"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106" t="s">
+      <c r="A15" s="130"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="106" t="s">
+      <c r="D15" s="102"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="118"/>
       <c r="K15" s="44"/>
       <c r="L15" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="M15" s="129" t="s">
+      <c r="M15" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="122" t="s">
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="S15" s="122"/>
-      <c r="T15" s="123"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="105"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="125" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="53">
@@ -4024,39 +4024,39 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="103"/>
-      <c r="B17" s="105" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="106">
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="102">
         <v>178</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="118"/>
       <c r="K17" s="46"/>
       <c r="L17" s="43">
         <v>100</v>
       </c>
-      <c r="M17" s="129">
+      <c r="M17" s="111">
         <v>370</v>
       </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="122" t="s">
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="S17" s="122"/>
-      <c r="T17" s="123"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="105"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="113" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="15">
@@ -4082,18 +4082,18 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="128"/>
-      <c r="B19" s="106" t="s">
+      <c r="A19" s="114"/>
+      <c r="B19" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
@@ -4109,91 +4109,78 @@
       <c r="A20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="142"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="103"/>
     </row>
     <row r="21" spans="1:20" ht="149.25" customHeight="1">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="136"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="121"/>
     </row>
     <row r="22" spans="1:20" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="133"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B20:T20"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A21:T21"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B14:B15"/>
@@ -4210,12 +4197,41 @@
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="R5:T5"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="A21:T21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B20:T20"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="M17:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D52E9173-CB76-41AB-B524-5942C54E9EBD}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Mission Specifications'!B10:T10</xm:f>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DECAC13A-CD59-4732-B485-5129A0800055}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -4232,22 +4248,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D52E9173-CB76-41AB-B524-5942C54E9EBD}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Mission Specifications'!B10:T10</xm:f>
-              <xm:sqref>B3</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -4259,7 +4259,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Sizing_Method/Mission.xlsx
+++ b/Sizing_Method/Mission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bli408_gatech_edu/Documents/Research/DEA/Sizing_Method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1841" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7982FED1-0C47-4C9C-84A9-9A14F63EF8DC}"/>
+  <xr:revisionPtr revIDLastSave="1870" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E646FFA5-6F57-0543-8064-AB827A72F7EC}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2445" windowWidth="19035" windowHeight="10455" firstSheet="1" activeTab="1" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
+    <workbookView xWindow="3340" yWindow="5640" windowWidth="23760" windowHeight="17520" activeTab="4" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
   </bookViews>
   <sheets>
     <sheet name="Top-Level Requirments" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Engine" sheetId="5" r:id="rId3"/>
     <sheet name="Mission Specifications" sheetId="3" r:id="rId4"/>
     <sheet name="Constrains Analysis" sheetId="6" r:id="rId5"/>
+    <sheet name="HEP Assumption" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
   <si>
     <t>Mission Phases &amp; Segments</t>
   </si>
@@ -326,7 +327,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -563,7 +564,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +767,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -902,7 +903,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -912,7 +913,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -924,7 +925,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -934,7 +935,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -946,21 +947,96 @@
     <t>It must be capable of climbing at least ROC=15 m/s at 100 m/s at S-L, ROC=10 m/s at 200 m/s at 3000 m, ROC=5 m/s at 250 m/s at 7000 m</t>
   </si>
   <si>
-    <t>It must be capable of a service ceiling of at least 12000 m, ROC=0.508 m/s (100fpm).</t>
-  </si>
-  <si>
     <t>Maximum lift coefficient = 2.3, the stalling speed for take off is 65 m/s</t>
+  </si>
+  <si>
+    <t>Assumed HEP technology levels</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery pack speciﬁc energy</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery pack speciﬁc power</t>
+  </si>
+  <si>
+    <t>Minimum SOC</t>
+  </si>
+  <si>
+    <t>EM speciﬁc power</t>
+  </si>
+  <si>
+    <t>EM eﬃciency</t>
+  </si>
+  <si>
+    <t>PMAD eﬃciency</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Gearbox e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ﬃ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ciency</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas turbine eﬃciency</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It must be capable of a service ceiling of at least 12000 m, ROC=0.508 m/s (100fpm).  (*after crusing, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>𝛽=0.78)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -969,14 +1045,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1003,7 +1079,7 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1028,6 +1104,27 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1552,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1989,6 +2086,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2310,12 +2410,12 @@
       <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2418,7 +2518,7 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="25" t="s">
         <v>166</v>
       </c>
@@ -2433,7 +2533,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="25" t="s">
         <v>109</v>
       </c>
@@ -2448,7 +2548,7 @@
       </c>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="25" t="s">
         <v>113</v>
       </c>
@@ -2510,7 +2610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="25" t="s">
         <v>117</v>
       </c>
@@ -2525,7 +2625,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="25" t="s">
         <v>129</v>
       </c>
@@ -2540,7 +2640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="25" t="s">
         <v>142</v>
       </c>
@@ -2555,7 +2655,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="25" t="s">
         <v>151</v>
       </c>
@@ -2570,7 +2670,7 @@
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="25" t="s">
         <v>143</v>
       </c>
@@ -2587,7 +2687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="25" t="s">
         <v>153</v>
       </c>
@@ -2773,6 +2873,7 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2781,19 +2882,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5552AF8-B1EE-42F4-AC13-62E80738461D}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="14.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -3049,6 +3149,7 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3057,16 +3158,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7D32A3-5DEA-4166-9F98-AF0E7A0870D9}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3169,7 +3270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="32" t="s">
         <v>88</v>
       </c>
@@ -3218,6 +3319,7 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3226,27 +3328,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432984C-F238-4EA6-8C26-24B9D92B7625}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H11" sqref="H11"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
     <col min="6" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.28515625" style="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="1"/>
+    <col min="10" max="10" width="8.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.33203125" style="1" customWidth="1"/>
+    <col min="17" max="20" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -3505,7 +3607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="16">
       <c r="A8" s="25" t="s">
         <v>60</v>
       </c>
@@ -3875,7 +3977,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="16">
       <c r="A14" s="129" t="s">
         <v>183</v>
       </c>
@@ -3969,7 +4071,7 @@
       <c r="S15" s="104"/>
       <c r="T15" s="105"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="16">
       <c r="A16" s="125" t="s">
         <v>123</v>
       </c>
@@ -4105,7 +4207,7 @@
       <c r="S19" s="43"/>
       <c r="T19" s="52"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="16">
       <c r="A20" s="16" t="s">
         <v>3</v>
       </c>
@@ -4211,6 +4313,7 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="M17:Q17"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <extLst>
@@ -4256,16 +4359,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8CBAA4-62E9-4CA0-B764-0B88AF730CA7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="129.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="129.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4293,7 +4396,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <f t="shared" ref="A4:A14" si="0">1+A3</f>
+        <f t="shared" ref="A4:A10" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -4324,7 +4427,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4336,7 +4439,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2" ht="17">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4351,38 +4454,92 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B6BC3A-9345-1F43-AAD0-968EF9B4004E}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="147"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sizing_Method/Mission.xlsx
+++ b/Sizing_Method/Mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bli408_gatech_edu/Documents/Research/DEA/Sizing_Method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1870" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E646FFA5-6F57-0543-8064-AB827A72F7EC}"/>
+  <xr:revisionPtr revIDLastSave="1902" documentId="8_{98A4B7C4-1191-48AB-AEF5-B062CBB99D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1410229-BFB9-BB42-8899-7226A9C3FE01}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="5640" windowWidth="23760" windowHeight="17520" activeTab="4" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
+    <workbookView xWindow="-40" yWindow="3240" windowWidth="23760" windowHeight="17520" activeTab="4" xr2:uid="{59FAB8B2-9FD6-4831-96AC-42A3FE19700E}"/>
   </bookViews>
   <sheets>
     <sheet name="Top-Level Requirments" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="217">
   <si>
     <t>Mission Phases &amp; Segments</t>
   </si>
@@ -292,22 +292,13 @@
     <t>t</t>
   </si>
   <si>
-    <t>Power-to-weight ratio</t>
-  </si>
-  <si>
     <t>Wing load</t>
   </si>
   <si>
     <t>W/S</t>
   </si>
   <si>
-    <t>P/W</t>
-  </si>
-  <si>
     <t>N/m2</t>
-  </si>
-  <si>
-    <t>W/N</t>
   </si>
   <si>
     <t>Mean aerodynamic chord</t>
@@ -416,9 +407,6 @@
   </si>
   <si>
     <t>min</t>
-  </si>
-  <si>
-    <t>≈ 25</t>
   </si>
   <si>
     <r>
@@ -881,9 +869,6 @@
   </si>
   <si>
     <t>Design gross weight shall be 76 tones.</t>
-  </si>
-  <si>
-    <t>It must sustain turn rate 3 m/s (2 min for 360 degree turn) while cruising at 235 m/s (0.78 Mach) at 10000 m.</t>
   </si>
   <si>
     <t>It must be capable of operating from short runways in which the ground run is no greater than 1480 m and liftoff speed of 68 m/s at design gross weight.</t>
@@ -1027,12 +1012,39 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>切记有两个发动机，要乘以二</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trust-to-weight ratio</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/W</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max take-off weight, full power</t>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>It must sustain turn rate 3 m/s (2 min for 360 degree turn) while cruising at 230 m/s (0.78 Mach) at 10000 m.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1138,29 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1646,10 +1681,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1892,6 +1928,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1943,26 +1982,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1970,26 +2066,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2000,9 +2081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2012,77 +2090,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2090,9 +2129,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2407,7 +2452,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E30"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2417,18 +2462,22 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -2442,12 +2491,12 @@
         <v>31</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>78</v>
@@ -2462,12 +2511,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18">
@@ -2477,9 +2526,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
@@ -2490,7 +2539,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -2503,12 +2552,12 @@
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>33</v>
@@ -2518,12 +2567,12 @@
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="16">
+    <row r="8" spans="1:6" ht="16" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>4</v>
@@ -2533,12 +2582,12 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="16">
+    <row r="9" spans="1:6" ht="16" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>4</v>
@@ -2548,54 +2597,59 @@
       </c>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5" ht="16">
+    <row r="10" spans="1:6" ht="16" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19">
         <v>30</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.311</v>
+      </c>
+      <c r="E11" s="150">
+        <v>0.311</v>
+      </c>
+      <c r="F11" s="151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
@@ -2607,12 +2661,12 @@
         <v>12</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
@@ -2622,12 +2676,12 @@
         <v>1925</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
@@ -2637,94 +2691,94 @@
         <v>1400</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" customHeight="1">
       <c r="A16" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>146</v>
-      </c>
       <c r="C16" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D16" s="19">
         <v>78</v>
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="16" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D17" s="19">
         <v>63</v>
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:6" ht="16">
+    <row r="18" spans="1:6" ht="16" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D18" s="19">
         <v>65</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D19" s="19">
         <v>55</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19">
         <v>2.2999999999999998</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19">
@@ -2732,7 +2786,7 @@
       </c>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>13</v>
       </c>
@@ -2744,9 +2798,9 @@
         <v>79.400000000000006</v>
       </c>
       <c r="E22" s="24"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="82"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2761,7 +2815,7 @@
       </c>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2830,7 @@
       </c>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="23" t="s">
         <v>17</v>
       </c>
@@ -2791,7 +2845,7 @@
       </c>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="23" t="s">
         <v>74</v>
       </c>
@@ -2806,7 +2860,7 @@
       </c>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="23" t="s">
         <v>32</v>
       </c>
@@ -2819,20 +2873,20 @@
       </c>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="23" t="s">
         <v>18</v>
       </c>
@@ -2846,26 +2900,26 @@
         <v>21384</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="60.75" customHeight="1">
-      <c r="A30" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
+      <c r="A30" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
     </row>
     <row r="31" spans="1:6" ht="119.25" customHeight="1" thickBot="1">
-      <c r="A31" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
+      <c r="A31" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2874,6 +2928,9 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" display="https://en.wikipedia.org/wiki/Thrust-to-weight_ratio" xr:uid="{EC6E3DF8-BB78-9747-ACD1-1A49C3AF4E02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2897,12 +2954,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="28" t="s">
@@ -2919,12 +2976,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
@@ -2955,12 +3012,12 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+      <c r="A6" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
@@ -2985,7 +3042,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>38</v>
@@ -2998,7 +3055,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3024,10 +3081,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
@@ -3039,12 +3096,12 @@
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
+      <c r="A12" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
@@ -3091,12 +3148,12 @@
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" ht="114" customHeight="1" thickBot="1">
-      <c r="A16" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
+      <c r="A16" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16"/>
       <c r="F16"/>
     </row>
@@ -3156,10 +3213,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7D32A3-5DEA-4166-9F98-AF0E7A0870D9}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3170,23 +3227,23 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
@@ -3199,8 +3256,11 @@
       <c r="D3" s="29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="149" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3272,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
@@ -3222,7 +3282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="30" t="s">
         <v>26</v>
       </c>
@@ -3234,7 +3294,7 @@
         <v>3.4009999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
         <v>28</v>
       </c>
@@ -3246,7 +3306,7 @@
         <v>2.2240000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
@@ -3258,7 +3318,7 @@
         <v>2857.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="30" t="s">
         <v>29</v>
       </c>
@@ -3270,21 +3330,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="31">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="30" t="s">
         <v>30</v>
       </c>
@@ -3296,21 +3356,21 @@
         <v>117.19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-    </row>
-    <row r="13" spans="1:4" ht="87.75" customHeight="1" thickBot="1">
-      <c r="A13" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+    <row r="12" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+    </row>
+    <row r="13" spans="1:6" ht="87.75" customHeight="1" thickBot="1">
+      <c r="A13" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3328,7 +3388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432984C-F238-4EA6-8C26-24B9D92B7625}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
@@ -3352,143 +3412,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="124"/>
+      <c r="A1" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="102"/>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="135" customHeight="1">
       <c r="A2" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="119"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="140.25" customHeight="1">
       <c r="A3" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
+        <v>116</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="133"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
       <c r="K4" s="80"/>
       <c r="L4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="134" t="s">
+      <c r="M4" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="135" t="s">
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="135"/>
-      <c r="T4" s="137"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="117"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="143" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="106" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
       <c r="K5" s="81"/>
       <c r="L5" s="63"/>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="144" t="s">
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="144"/>
-      <c r="T5" s="145"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="129"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="64" t="s">
         <v>15</v>
       </c>
@@ -3514,41 +3574,41 @@
         <v>64</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>5</v>
       </c>
       <c r="M6" s="64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N6" s="65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P6" s="65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S6" s="67" t="s">
         <v>79</v>
       </c>
       <c r="T6" s="68" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="101"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="69" t="s">
         <v>48</v>
       </c>
@@ -3559,22 +3619,22 @@
         <v>50</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>49</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I7" s="70" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K7" s="71" t="s">
         <v>61</v>
@@ -3583,7 +3643,7 @@
         <v>63</v>
       </c>
       <c r="M7" s="69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N7" s="70" t="s">
         <v>70</v>
@@ -3732,8 +3792,8 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="125" t="s">
-        <v>140</v>
+      <c r="A10" s="103" t="s">
+        <v>136</v>
       </c>
       <c r="B10" s="53">
         <v>0</v>
@@ -3794,7 +3854,7 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="126"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="54">
         <v>0</v>
       </c>
@@ -3855,10 +3915,10 @@
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12" s="50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C12" s="9">
         <v>0</v>
@@ -3906,21 +3966,21 @@
         <v>7</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S12" s="58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>180</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="C13" s="55">
         <v>1.6</v>
@@ -3950,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M13" s="47">
         <v>0.35</v>
@@ -3959,133 +4019,133 @@
         <v>0</v>
       </c>
       <c r="O13" s="58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P13" s="48">
         <v>0</v>
       </c>
       <c r="Q13" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="S13" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="T13" s="78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16">
+      <c r="A14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="R13" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16">
-      <c r="A14" s="129" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="R14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="110"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="130"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="118"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
       <c r="K15" s="44"/>
       <c r="L15" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="M15" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="S15" s="104"/>
-      <c r="T15" s="105"/>
+        <v>185</v>
+      </c>
+      <c r="M15" s="143" t="s">
+        <v>186</v>
+      </c>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="S15" s="123"/>
+      <c r="T15" s="124"/>
     </row>
     <row r="16" spans="1:20" ht="16">
-      <c r="A16" s="125" t="s">
-        <v>123</v>
+      <c r="A16" s="103" t="s">
+        <v>119</v>
       </c>
       <c r="B16" s="53">
         <v>0</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F16" s="9">
         <v>3</v>
@@ -4116,50 +4176,50 @@
       </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="126"/>
-      <c r="B17" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="102">
+      <c r="A17" s="104"/>
+      <c r="B17" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="107">
         <v>178</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="118"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
       <c r="K17" s="46"/>
       <c r="L17" s="43">
         <v>100</v>
       </c>
-      <c r="M17" s="111">
+      <c r="M17" s="143">
         <v>370</v>
       </c>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="S17" s="104"/>
-      <c r="T17" s="105"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="113" t="s">
-        <v>127</v>
+      <c r="A18" s="145" t="s">
+        <v>123</v>
       </c>
       <c r="B18" s="15">
         <v>140</v>
@@ -4184,18 +4244,18 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="114"/>
-      <c r="B19" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
@@ -4211,78 +4271,91 @@
       <c r="A20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="139"/>
+    </row>
+    <row r="21" spans="1:20" ht="149.25" customHeight="1">
+      <c r="A21" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="135"/>
+    </row>
+    <row r="22" spans="1:20" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A22" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="103"/>
-    </row>
-    <row r="21" spans="1:20" ht="149.25" customHeight="1">
-      <c r="A21" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="121"/>
-    </row>
-    <row r="22" spans="1:20" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A22" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="117"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B20:T20"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="A21:T21"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B14:B15"/>
@@ -4299,19 +4372,6 @@
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="R5:T5"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A21:T21"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B20:T20"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="M17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4319,6 +4379,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DECAC13A-CD59-4732-B485-5129A0800055}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Mission Specifications'!B9:T9</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D52E9173-CB76-41AB-B524-5942C54E9EBD}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -4335,22 +4411,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DECAC13A-CD59-4732-B485-5129A0800055}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Mission Specifications'!B9:T9</xm:f>
-              <xm:sqref>B2</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -4362,7 +4422,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4372,17 +4432,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="146" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="146"/>
+      <c r="A1" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4391,7 +4451,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4400,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4409,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4418,7 +4478,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4427,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4436,7 +4496,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -4445,7 +4505,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4454,7 +4514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4482,57 +4542,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="147"/>
+      <c r="A1" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="148"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
